--- a/xlsx/刘紫剑.xlsx
+++ b/xlsx/刘紫剑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12570"/>
+    <workbookView windowWidth="28800" windowHeight="12500"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>个人信息</t>
   </si>
@@ -103,7 +103,7 @@
     <t>职业技能</t>
   </si>
   <si>
-    <t>Go,Redis,MySQL,Linux,Git,Shell</t>
+    <t>Go,C++,Redis,MySQL,Linux,Git,Shell,Jenkins,Nsq</t>
   </si>
   <si>
     <t>工作经历</t>
@@ -130,6 +130,14 @@
 1、使用Go语言完成游戏需求，并测试
 2、持续修复游戏中出现的Bug
 3、使用Jenkins管理游戏项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海动萌网络技术有限公司（2020/01-2020-9）
+岗位：服务器开发
+职责：
+1、使用Go语言完成游戏需求，并测试
+2、持续修复游戏中出现的Bug
+</t>
   </si>
   <si>
     <t>项目经验</t>
@@ -158,6 +166,18 @@
 5、和前端交互使用protobuf协议</t>
   </si>
   <si>
+    <t>龙之战绩(2020/1 - 2020/9)
+所属公司：上海动萌网络技术有限公司
+项目描述：项目主要有五个服务器loginserver(登陆服务器),
+gameserver(游戏服务器),centerserver(中心服务器),adminserver(后台管理服务器),payserver(支付回调服务器),
+1、loginserver:校验玩家的账号信息,成功后存储到redis供gameserver校验
+2、gameserver:主要有(充值,邮件,任务,商城,聊天,行会,武器,技能,装备等功能),负责玩家战斗部分的计算(伤害,移动）参与游戏的其它玩家信息的广播
+3、centerserver:负责给管理所有的gameserver，gameserver启动会注册到centerserver
+4、adminserver:和centerserver通信，主要有后台GM功能
+5、payserver:主要负责各个平台的支付回调处理，然后通过nsq转发给gameserver，gameserver负责发货
+6、和前端交互使用protobuf协议</t>
+  </si>
+  <si>
     <t>博客&amp;Github</t>
   </si>
   <si>
@@ -172,30 +192,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -203,7 +223,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -217,7 +237,7 @@
       <b/>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -225,14 +245,105 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -240,120 +351,29 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -367,19 +387,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,163 +501,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,8 +584,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,17 +653,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,173 +678,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -821,7 +841,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -836,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -844,55 +864,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -914,7 +934,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>749935</xdr:colOff>
+      <xdr:colOff>567690</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
@@ -933,8 +953,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6029325" y="476250"/>
-          <a:ext cx="654685" cy="806450"/>
+          <a:off x="4208780" y="502920"/>
+          <a:ext cx="472440" cy="869950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1202,19 +1222,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:F15"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.79807692307692" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="23.6" customWidth="1"/>
-    <col min="5" max="5" width="12.3" customWidth="1"/>
-    <col min="6" max="6" width="8.6" customWidth="1"/>
+    <col min="3" max="3" width="23.5961538461538" customWidth="1"/>
+    <col min="5" max="5" width="12.2980769230769" customWidth="1"/>
+    <col min="6" max="6" width="9.43269230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1235,7 +1255,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="17.6" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1325,7 +1345,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" ht="17.6" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1439,7 +1459,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" ht="17.6" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -1473,7 +1493,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" ht="17.6" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>30</v>
@@ -1521,9 +1541,11 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" ht="97" customHeight="1" spans="1:8">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1531,11 +1553,9 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" ht="21" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
-      <c r="B25" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1543,44 +1563,46 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" ht="216" customHeight="1" spans="1:8">
+    <row r="26" ht="21" customHeight="1" spans="1:8">
       <c r="A26" s="1"/>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" ht="167" customHeight="1" spans="1:8">
+    <row r="27" ht="258" customHeight="1" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" ht="283" customHeight="1" spans="1:8">
       <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="B28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" ht="301" customHeight="1" spans="1:8">
       <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
-        <v>37</v>
+      <c r="B29" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1589,20 +1611,19 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1"/>
-      <c r="B30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" ht="17.6" spans="1:8">
       <c r="A31" s="1"/>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="1"/>
@@ -1610,18 +1631,41 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
+      <c r="B33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
@@ -1647,12 +1691,14 @@
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
     <mergeCell ref="F3:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId2" display="18841685054@163.com"/>
-    <hyperlink ref="B30" r:id="rId3" display="https://github.com/NorseLZJ"/>
-    <hyperlink ref="B31" r:id="rId4" display="https://www.cnblogs.com/--just-lbk/"/>
+    <hyperlink ref="B32" r:id="rId3" display="https://github.com/NorseLZJ"/>
+    <hyperlink ref="B33" r:id="rId4" display="https://www.cnblogs.com/--just-lbk/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
